--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>№</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Сонета 10</t>
+  </si>
+  <si>
+    <t>Текущее положение</t>
+  </si>
+  <si>
+    <t>стр. 3</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,9 +410,10 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +426,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -432,6 +442,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
